--- a/packages/jsreport-xlsx/test/xlsx/loop-multiple-rows-existing-formula-cross-sheet-reference.xlsx
+++ b/packages/jsreport-xlsx/test/xlsx/loop-multiple-rows-existing-formula-cross-sheet-reference.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/jsreport/jsreport/packages/jsreport-xlsx/test/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFBA457-02E4-F445-A2CC-614E99E0E48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C89496-567A-BB4A-AEE6-EFB436EA8F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47460" yWindow="1980" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{E64D1ECD-F10D-4745-832B-F27334D20F18}"/>
+    <workbookView xWindow="48480" yWindow="3320" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{E64D1ECD-F10D-4745-832B-F27334D20F18}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
     <sheet name="B" sheetId="2" r:id="rId2"/>
     <sheet name="C" sheetId="3" r:id="rId3"/>
-    <sheet name="DATA" sheetId="4" r:id="rId4"/>
+    <sheet name="After Loop" sheetId="5" r:id="rId4"/>
+    <sheet name="DATA" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>{{#each items}}</t>
   </si>
@@ -54,6 +55,15 @@
   </si>
   <si>
     <t>{{value}}</t>
+  </si>
+  <si>
+    <t>{{#each items}}{{value}}</t>
+  </si>
+  <si>
+    <t>Calculated2</t>
+  </si>
+  <si>
+    <t>Calculated3</t>
   </si>
 </sst>
 </file>
@@ -434,7 +444,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,7 +552,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,8 +612,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACFF27A-7E69-DC4D-9DC3-D05095494804}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E59CAD-25F8-2C4E-9021-EBBC0B95B48A}">
+  <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -611,6 +621,71 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="e">
+        <f>C6+DATA!A1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" t="e">
+        <f>C6+DATA!B4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" t="e">
+        <f>C6+DATA!C7</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACFF27A-7E69-DC4D-9DC3-D05095494804}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2">
         <v>10</v>
